--- a/python/サンプルデータ.xlsx
+++ b/python/サンプルデータ.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.115.191.55897"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="2" r:id="rId1"/>
+    <sheet name="user" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -21,8 +22,15 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t>name</t>
   </si>
@@ -1048,6 +1056,45 @@
   </si>
   <si>
     <t>0SRK8vquWjI</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>reservDate</t>
+  </si>
+  <si>
+    <t>inquiryDetail</t>
+  </si>
+  <si>
+    <t>deleteFlag</t>
+  </si>
+  <si>
+    <t>inquiry_detail</t>
+  </si>
+  <si>
+    <t>reserv_date</t>
+  </si>
+  <si>
+    <t>斎藤 篤司</t>
+  </si>
+  <si>
+    <t>岡本 結衣</t>
+  </si>
+  <si>
+    <t>einoue@example.org</t>
+  </si>
+  <si>
+    <t>sogawa@example.net</t>
+  </si>
+  <si>
+    <t>予約したいです</t>
+  </si>
+  <si>
+    <t>予約したいです2</t>
+  </si>
+  <si>
+    <t>テストです</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <name val="メイリオ"/>
@@ -1195,6 +1242,12 @@
       <name val="宋体"/>
       <color rgb="FF0F0F0F"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="メイリオ"/>
+      <color theme="10"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1668,7 +1721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1716,6 +1769,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2037,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
@@ -3146,4 +3205,84 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.000000"/>
+  <cols>
+    <col min="1" max="1" width="13.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="27.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="24.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="28.75499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="17">
+        <v>45927.4375</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="17">
+        <v>45928.4375</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C3"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+  </hyperlinks>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>